--- a/Symbol.xlsx
+++ b/Symbol.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dragaas-my.sharepoint.com/personal/tonia_pedersen_draga_no/Documents/DEXPI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2FAD3120-4DB0-4175-8BE0-76B79714EC01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="235" documentId="8_{2FAD3120-4DB0-4175-8BE0-76B79714EC01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0F51FF2B-C084-4634-A673-18C357EC321D}"/>
   <bookViews>
-    <workbookView xWindow="3750" yWindow="1815" windowWidth="21600" windowHeight="11385"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$2:$K$8</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,8 +36,26 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={C6B22ABC-9BDC-4979-8E79-C8688DD9469A}</author>
+  </authors>
+  <commentList>
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{C6B22ABC-9BDC-4979-8E79-C8688DD9469A}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    anti-clockwise</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="41">
   <si>
     <t>DEXPI ID</t>
   </si>
@@ -42,18 +63,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Link</t>
-  </si>
-  <si>
-    <t>Rotation90deg</t>
-  </si>
-  <si>
-    <t>Rotation180deg</t>
-  </si>
-  <si>
-    <t>Rotation270deg</t>
-  </si>
-  <si>
     <t>Mirroring</t>
   </si>
   <si>
@@ -66,9 +75,6 @@
     <t>ND0002</t>
   </si>
   <si>
-    <t>ND0002_NozzleTee (toniapedersen.github.io)</t>
-  </si>
-  <si>
     <t>NozzleTee</t>
   </si>
   <si>
@@ -76,13 +82,109 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>PA001A</t>
+  </si>
+  <si>
+    <t>Actuator Type E H M</t>
+  </si>
+  <si>
+    <t>Symbol_ANNEXF_001</t>
+  </si>
+  <si>
+    <t>Visio Workbook</t>
+  </si>
+  <si>
+    <t>TR1970</t>
+  </si>
+  <si>
+    <t>Z004</t>
+  </si>
+  <si>
+    <t>Symbol_ANNEXF_032</t>
+  </si>
+  <si>
+    <t>PA004A</t>
+  </si>
+  <si>
+    <t>Spring Return Actuator</t>
+  </si>
+  <si>
+    <t>Graphic</t>
+  </si>
+  <si>
+    <t>PA008A</t>
+  </si>
+  <si>
+    <t>PP001A</t>
+  </si>
+  <si>
+    <t>Pump Centrifugal</t>
+  </si>
+  <si>
+    <t>Symbol_ANNEXF_019</t>
+  </si>
+  <si>
+    <t>PP003A</t>
+  </si>
+  <si>
+    <t>Pump Gear</t>
+  </si>
+  <si>
+    <t>PT001A</t>
+  </si>
+  <si>
+    <t>Tank pressure Vessel Horizontal</t>
+  </si>
+  <si>
+    <t>PT002A</t>
+  </si>
+  <si>
+    <t>Tank pressure Vessel Vertical</t>
+  </si>
+  <si>
+    <t>Symbol_ANNEXF_023</t>
+  </si>
+  <si>
+    <t>Rotation</t>
+  </si>
+  <si>
+    <t>PV005A</t>
+  </si>
+  <si>
+    <t>Valve Gate</t>
+  </si>
+  <si>
+    <t>Symbol_ANNEXF_027</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Attributes</t>
+  </si>
+  <si>
+    <t>Options</t>
+  </si>
+  <si>
+    <t>VALVE_POSITION = 'NC'</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,6 +199,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -120,9 +235,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -139,6 +255,489 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>750525</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>445725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Graphic 4">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A44D1D85-1437-46BD-8F0B-D2E428487754}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId3"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1885950" y="466725"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>963980</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>742950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDCA3823-2037-4408-AD4D-9521865D7848}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1676400" y="923925"/>
+          <a:ext cx="783005" cy="695325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>495301</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>675655</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>466725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C100E3B-5623-47F1-8030-4622985BC58E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1971676" y="1743075"/>
+          <a:ext cx="180354" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>521354</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Graphic 2">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE42BC0C-C518-4DCE-9F23-C0B71DE5B348}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1847850" y="2219325"/>
+          <a:ext cx="342900" cy="511829"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>381001</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>467693</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Graphic 6">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46A8E3A1-DBB7-49E2-99CF-0FAF0456ABF6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId13"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1857376" y="2809876"/>
+          <a:ext cx="361949" cy="429592"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>755388</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>514350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Graphic 10">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65816CC8-D0A7-484F-8D29-6467374434C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1838325" y="3381375"/>
+          <a:ext cx="393438" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304801</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1085207</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Graphic 12">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{315D74F1-279A-4052-A601-0388AC9460AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId19"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1781176" y="4057650"/>
+          <a:ext cx="780406" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>576139</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>738553</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>514350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Graphic 14">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId20"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DB08D8A-146A-4029-AE2E-AE7F8172F306}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId22"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2052514" y="4495801"/>
+          <a:ext cx="162414" cy="476249"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1011555</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Graphic 16">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId23"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABC390BF-34D4-473D-A6AC-A577957A3762}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId25"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1819275" y="5162550"/>
+          <a:ext cx="668655" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/namedSheetViews/namedSheetView1.xml><?xml version="1.0" encoding="utf-8"?>
+<namedSheetViews xmlns="http://schemas.microsoft.com/office/spreadsheetml/2019/namedsheetviews" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Tonia Pedersen" id="{D5F98060-1033-432E-9993-EC1A59173A2C}" userId="S::tonia.pedersen@draga.no::90b35334-d922-4736-a054-f475bb830731" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -436,83 +1035,344 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="F2" dT="2021-10-07T12:45:56.57" personId="{D5F98060-1033-432E-9993-EC1A59173A2C}" id="{C6B22ABC-9BDC-4979-8E79-C8688DD9469A}">
+    <text>anti-clockwise</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:Q11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" customWidth="1"/>
-    <col min="2" max="2" width="45.85546875" customWidth="1"/>
-    <col min="3" max="9" width="22.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="26.28515625" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+    <col min="7" max="8" width="13.5703125" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" customWidth="1"/>
+    <col min="10" max="10" width="16.85546875" customWidth="1"/>
+    <col min="12" max="12" width="6.7109375" customWidth="1"/>
+    <col min="13" max="15" width="0" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="9.140625" collapsed="1"/>
+    <col min="17" max="17" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="1" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="L1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="H2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q2">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
+    </row>
+    <row r="3" spans="2:17" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" t="s">
+      <c r="C3" s="2"/>
+      <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="H2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="2:17" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E4" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" t="s">
-        <v>13</v>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" t="s">
+        <v>8</v>
+      </c>
+      <c r="K8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" t="s">
+        <v>8</v>
+      </c>
+      <c r="K11" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B2:K8" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="https://toniapedersen.github.io/DEXPI/symbol/ND0002_NozzleTee.svg"/>
+    <hyperlink ref="B3" r:id="rId1" display="ND0002_NozzleTee (toniapedersen.github.io)" xr:uid="{A26CE6C0-2BFB-47C3-94E0-6267BE1C6C94}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{17ADBAC8-7138-41E8-BDFB-2ED015B2E3B6}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{7B0DB2E4-4491-4E74-8635-3DA0891DE92A}"/>
+    <hyperlink ref="B6" r:id="rId4" xr:uid="{3A518947-B6F8-4C42-81D7-7894D9144A33}"/>
+    <hyperlink ref="B9" r:id="rId5" xr:uid="{1530A2D6-E766-4B18-A43E-8B39F0F56795}"/>
+    <hyperlink ref="B10" r:id="rId6" xr:uid="{2DE5C6D6-0376-4B8F-BDAB-849D94654FDB}"/>
+    <hyperlink ref="B7" r:id="rId7" xr:uid="{761B47C6-804C-4528-8497-BBE932BB2C49}"/>
+    <hyperlink ref="B8" r:id="rId8" xr:uid="{EC8BC23F-0549-4B47-A475-38BE73BE9CEE}"/>
+    <hyperlink ref="B11" r:id="rId9" xr:uid="{5A391EDE-1D55-4CFD-9901-A29E0591193B}"/>
+    <hyperlink ref="Q11" r:id="rId10" xr:uid="{55AC7A21-B7E6-40E1-BAFE-05E296EBFA03}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId11"/>
+  <legacyDrawing r:id="rId12"/>
 </worksheet>
 </file>
--- a/Symbol.xlsx
+++ b/Symbol.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dragaas-my.sharepoint.com/personal/tonia_pedersen_draga_no/Documents/DEXPI/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dragaas-my.sharepoint.com/personal/tonia_pedersen_draga_no/Documents/DEXPI/TestCase/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="235" documentId="8_{2FAD3120-4DB0-4175-8BE0-76B79714EC01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0F51FF2B-C084-4634-A673-18C357EC321D}"/>
+  <xr:revisionPtr revIDLastSave="519" documentId="8_{2FAD3120-4DB0-4175-8BE0-76B79714EC01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B70E3661-8F17-4AE0-B988-652C417A808B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$2:$K$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$2:$S$26</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="78">
   <si>
     <t>DEXPI ID</t>
   </si>
@@ -84,6 +84,9 @@
     <t>No</t>
   </si>
   <si>
+    <t>Rotation</t>
+  </si>
+  <si>
     <t>PA001A</t>
   </si>
   <si>
@@ -105,9 +108,6 @@
     <t>Symbol_ANNEXF_032</t>
   </si>
   <si>
-    <t>PA004A</t>
-  </si>
-  <si>
     <t>Spring Return Actuator</t>
   </si>
   <si>
@@ -132,12 +132,6 @@
     <t>Pump Gear</t>
   </si>
   <si>
-    <t>PT001A</t>
-  </si>
-  <si>
-    <t>Tank pressure Vessel Horizontal</t>
-  </si>
-  <si>
     <t>PT002A</t>
   </si>
   <si>
@@ -147,9 +141,6 @@
     <t>Symbol_ANNEXF_023</t>
   </si>
   <si>
-    <t>Rotation</t>
-  </si>
-  <si>
     <t>PV005A</t>
   </si>
   <si>
@@ -168,23 +159,143 @@
     <t>C</t>
   </si>
   <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>Attributes</t>
-  </si>
-  <si>
     <t>Options</t>
   </si>
   <si>
     <t>VALVE_POSITION = 'NC'</t>
+  </si>
+  <si>
+    <t>ND0006</t>
+  </si>
+  <si>
+    <t>Front Mounted Instrument</t>
+  </si>
+  <si>
+    <t>&lt;PlantCode&gt;-&lt;PlantSystem&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Sequence&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ObjectDisplayName&gt;</t>
+  </si>
+  <si>
+    <t>&lt;TypeCode&gt;</t>
+  </si>
+  <si>
+    <t>ND0007</t>
+  </si>
+  <si>
+    <t>Property Break</t>
+  </si>
+  <si>
+    <t>ND0008</t>
+  </si>
+  <si>
+    <t>OPC Flow Right</t>
+  </si>
+  <si>
+    <t>ND0009</t>
+  </si>
+  <si>
+    <t>OPC Flow Left</t>
+  </si>
+  <si>
+    <t>ND0010</t>
+  </si>
+  <si>
+    <t>PE001A</t>
+  </si>
+  <si>
+    <t>Concentric Reducer</t>
+  </si>
+  <si>
+    <t>Symbol_ANNEXF_008</t>
+  </si>
+  <si>
+    <t>PE010A</t>
+  </si>
+  <si>
+    <t>Exch. Plate</t>
+  </si>
+  <si>
+    <t>Symbol_ANNEXF_009</t>
+  </si>
+  <si>
+    <t>PE037A</t>
+  </si>
+  <si>
+    <t>Exch. Shell and Fuced Tube</t>
+  </si>
+  <si>
+    <t>Symbol_ANNEXF_015</t>
+  </si>
+  <si>
+    <t>PV001A</t>
+  </si>
+  <si>
+    <t>Flange</t>
+  </si>
+  <si>
+    <t>PV002A</t>
+  </si>
+  <si>
+    <t>Blind Flange</t>
+  </si>
+  <si>
+    <t>Symbol_ANNEXF_028</t>
+  </si>
+  <si>
+    <t>ND0011</t>
+  </si>
+  <si>
+    <t>Spring Actuated Safety Valve</t>
+  </si>
+  <si>
+    <t>IM005A</t>
+  </si>
+  <si>
+    <t>Field Instrument</t>
+  </si>
+  <si>
+    <t>Symbol_ANNEXC_005</t>
+  </si>
+  <si>
+    <t>Label Attributes</t>
+  </si>
+  <si>
+    <t>PV013A</t>
+  </si>
+  <si>
+    <t>Valve Check</t>
+  </si>
+  <si>
+    <t>PV018A</t>
+  </si>
+  <si>
+    <t>Valve Butterfly</t>
+  </si>
+  <si>
+    <t>PV019A</t>
+  </si>
+  <si>
+    <t>Valve Ball</t>
+  </si>
+  <si>
+    <t>PZ013A</t>
+  </si>
+  <si>
+    <t>Symbol_ANNEXF_031</t>
+  </si>
+  <si>
+    <t>Open or Tundish Drain</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,19 +318,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -235,10 +352,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -262,19 +383,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>750525</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>445725</xdr:rowOff>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>438150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Graphic 4">
+        <xdr:cNvPr id="19" name="Graphic 4">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
@@ -303,8 +424,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1885950" y="466725"/>
-          <a:ext cx="360000" cy="360000"/>
+          <a:off x="1952625" y="314325"/>
+          <a:ext cx="285750" cy="314325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -316,23 +437,23 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>963980</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>742950</xdr:rowOff>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>521354</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8">
+        <xdr:cNvPr id="43" name="Graphic 2">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDCA3823-2037-4408-AD4D-9521865D7848}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE42BC0C-C518-4DCE-9F23-C0B71DE5B348}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -341,103 +462,13 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1676400" y="923925"/>
-          <a:ext cx="783005" cy="695325"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>495301</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>675655</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>466725</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 9">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C100E3B-5623-47F1-8030-4622985BC58E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1971676" y="1743075"/>
-          <a:ext cx="180354" cy="371475"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>714375</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>521354</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Graphic 2">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE42BC0C-C518-4DCE-9F23-C0B71DE5B348}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -461,19 +492,19 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>381001</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>742950</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>467693</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Graphic 6">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        <xdr:cNvPr id="58" name="Graphic 6">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46A8E3A1-DBB7-49E2-99CF-0FAF0456ABF6}"/>
@@ -485,13 +516,13 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId13"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId9"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -515,19 +546,19 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>755388</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>514350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Graphic 10">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
+        <xdr:cNvPr id="59" name="Graphic 10">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65816CC8-D0A7-484F-8D29-6467374434C6}"/>
@@ -539,13 +570,13 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId12"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -565,26 +596,26 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>304801</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>576139</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1085207</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>428625</xdr:rowOff>
+      <xdr:colOff>738553</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>514350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Graphic 12">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17"/>
+        <xdr:cNvPr id="57" name="Graphic 14">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{315D74F1-279A-4052-A601-0388AC9460AA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DB08D8A-146A-4029-AE2E-AE7F8172F306}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -593,67 +624,13 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId19"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1781176" y="4057650"/>
-          <a:ext cx="780406" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>576139</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>738553</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>514350</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Graphic 14">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId20"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DB08D8A-146A-4029-AE2E-AE7F8172F306}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId22"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId15"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -673,23 +650,23 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1011555</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>485775</xdr:rowOff>
+      <xdr:colOff>847725</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>391502</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Graphic 16">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId23"/>
+        <xdr:cNvPr id="63" name="Graphic 16">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABC390BF-34D4-473D-A6AC-A577957A3762}"/>
@@ -701,13 +678,13 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId25"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -717,8 +694,917 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1819275" y="5162550"/>
-          <a:ext cx="668655" cy="342900"/>
+          <a:off x="1876425" y="10067925"/>
+          <a:ext cx="447675" cy="229577"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>514350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Graphic 2">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76E7343A-BF3C-4F9F-A53E-FBC03F5AD97C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId21"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1838325" y="1009650"/>
+          <a:ext cx="457200" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>295276</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>874136</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>523875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Graphic 4">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId22"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFEAEB10-B6B0-422B-BB01-515191E922EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId24"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1771651" y="1581150"/>
+          <a:ext cx="578860" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>488990</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId25"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{676B173D-B6BC-4C8B-8BD0-AEDB6468D965}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1943100" y="2181225"/>
+          <a:ext cx="219075" cy="403265"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1619250</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>405806</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Graphic 14">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId27"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E21FA56-A172-4486-A1E6-02FBB9662871}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId29"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1628776" y="2295525"/>
+          <a:ext cx="1466849" cy="205781"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1647825</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>396110</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Graphic 16">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId30"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C58795E-BFB0-47E3-84E5-9CB2E5093CD6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId32"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1590675" y="2847975"/>
+          <a:ext cx="1533525" cy="215135"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>799624</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>371475</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Graphic 19">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId33"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0917380-3046-4321-82D0-CEB844AE19A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId35"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1885950" y="3409950"/>
+          <a:ext cx="390049" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>476251</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>400050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Graphic 23">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId36"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{699FC2DB-9664-4556-AB8D-C7D29E2369CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId38"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1952626" y="5514976"/>
+          <a:ext cx="219074" cy="219074"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>361951</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>830201</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>523874</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Graphic 26">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId39"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D81C94A2-C29E-48BA-A932-9DA6388713D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId41"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1838326" y="5962649"/>
+          <a:ext cx="468250" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1373579</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>457200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Graphic 30">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId42"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{448C094A-B998-432E-8A63-7DC43948E10E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId44"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1666875" y="6591300"/>
+          <a:ext cx="1183079" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>744156</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>457200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Graphic 33">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId45"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{184D6992-B44F-4716-AD1F-13D2EC5A8ECF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId47"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2057400" y="8905875"/>
+          <a:ext cx="163131" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>608303</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>130951</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>620422</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>450074</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="Graphic 39">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId48"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05239B43-62A3-4F6D-89DD-A1E352F8C3F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId50"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2084678" y="9465451"/>
+          <a:ext cx="12119" cy="319123"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>771525</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>522329</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="Graphic 46">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId51"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EF276B1-6491-4B8A-AE00-0B21D1E27E03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId53"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1971675" y="3686176"/>
+          <a:ext cx="276225" cy="455653"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>457201</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>876301</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>504826</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="Graphic 49">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId54"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33BE87B6-9B9C-486B-B1D4-381B6F05E0DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId55" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId56"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1933576" y="10563226"/>
+          <a:ext cx="419100" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>842597</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>419101</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="Graphic 52">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId57"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8FFB465-79D1-4483-A397-FC38EB74A211}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId58" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId59"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1857375" y="11391901"/>
+          <a:ext cx="461597" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>923925</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>425780</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="56" name="Graphic 55">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId60"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C74EC4AE-8EC5-4B14-A1A3-72940F929AFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId61" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId62"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1885950" y="11972926"/>
+          <a:ext cx="514350" cy="263854"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>490538</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="65" name="Graphic 64">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId63"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37BDF1B7-03C6-487C-939F-A1950A94A537}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId64" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId65"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1990725" y="12487275"/>
+          <a:ext cx="514350" cy="385763"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>638176</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>861294</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>552450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="68" name="Graphic 67">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId66"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F409A1C-922D-42BD-A857-8AF9748E0A1F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId67" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId68"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2114551" y="13020675"/>
+          <a:ext cx="223118" cy="485775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -730,13 +1616,9 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/namedSheetViews/namedSheetView1.xml><?xml version="1.0" encoding="utf-8"?>
-<namedSheetViews xmlns="http://schemas.microsoft.com/office/spreadsheetml/2019/namedsheetviews" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Tonia Pedersen" id="{D5F98060-1033-432E-9993-EC1A59173A2C}" userId="S::tonia.pedersen@draga.no::90b35334-d922-4736-a054-f475bb830731" providerId="AD"/>
+  <person displayName="Tonia Pedersen" id="{3F66633E-8F29-4F58-8E88-3C7E28007978}" userId="S::tonia.pedersen@draga.no::90b35334-d922-4736-a054-f475bb830731" providerId="AD"/>
 </personList>
 </file>
 
@@ -1037,7 +1919,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="F2" dT="2021-10-07T12:45:56.57" personId="{D5F98060-1033-432E-9993-EC1A59173A2C}" id="{C6B22ABC-9BDC-4979-8E79-C8688DD9469A}">
+  <threadedComment ref="F2" dT="2021-10-07T12:45:56.57" personId="{3F66633E-8F29-4F58-8E88-3C7E28007978}" id="{C6B22ABC-9BDC-4979-8E79-C8688DD9469A}">
     <text>anti-clockwise</text>
   </threadedComment>
 </ThreadedComments>
@@ -1045,10 +1927,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:Q11"/>
+  <dimension ref="B1:S25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -1057,28 +1940,27 @@
     <col min="3" max="3" width="26.28515625" customWidth="1"/>
     <col min="4" max="4" width="32.5703125" customWidth="1"/>
     <col min="5" max="5" width="22.42578125" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" customWidth="1"/>
-    <col min="7" max="8" width="13.5703125" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" customWidth="1"/>
-    <col min="10" max="10" width="16.85546875" customWidth="1"/>
-    <col min="12" max="12" width="6.7109375" customWidth="1"/>
-    <col min="13" max="15" width="0" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="16" max="16" width="9.140625" collapsed="1"/>
-    <col min="17" max="17" width="21.28515625" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" customWidth="1"/>
+    <col min="13" max="13" width="19.140625" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="16.42578125" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="22.85546875" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="19" width="26.85546875" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:19" x14ac:dyDescent="0.25">
       <c r="L1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M1" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="P1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1089,10 +1971,10 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="G2" t="s">
         <v>2</v>
@@ -1104,275 +1986,706 @@
         <v>4</v>
       </c>
       <c r="J2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="N2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="O2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="Q2">
         <v>1</v>
       </c>
+      <c r="R2">
+        <v>2</v>
+      </c>
+      <c r="S2">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="2:17" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" t="s">
+        <v>65</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" t="s">
+      <c r="C4" s="2"/>
+      <c r="D4" t="s">
         <v>6</v>
       </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:17" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
+    <row r="5" spans="2:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" t="s">
+        <v>8</v>
+      </c>
+      <c r="M7" s="3"/>
+    </row>
+    <row r="8" spans="2:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" t="s">
+        <v>8</v>
+      </c>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="2:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" t="s">
+      <c r="D11" t="s">
         <v>11</v>
       </c>
-      <c r="F4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K4" t="s">
-        <v>9</v>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" t="s">
+        <v>8</v>
+      </c>
+      <c r="K11" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:17" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
+    <row r="12" spans="2:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" t="s">
         <v>17</v>
       </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" t="s">
-        <v>8</v>
-      </c>
-      <c r="K5" t="s">
-        <v>16</v>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12" t="s">
+        <v>8</v>
+      </c>
+      <c r="K12" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="6" spans="2:17" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6" t="s">
-        <v>8</v>
-      </c>
-      <c r="K6" t="s">
-        <v>16</v>
-      </c>
+    <row r="13" spans="2:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13" t="s">
+        <v>8</v>
+      </c>
+      <c r="K13" t="s">
+        <v>49</v>
+      </c>
+      <c r="M13" s="3"/>
     </row>
-    <row r="7" spans="2:17" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
+    <row r="14" spans="2:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" t="s">
+        <v>7</v>
+      </c>
+      <c r="K14" t="s">
+        <v>52</v>
+      </c>
+      <c r="M14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" t="s">
+        <v>7</v>
+      </c>
+      <c r="K15" t="s">
+        <v>55</v>
+      </c>
+      <c r="M15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D16" t="s">
         <v>21</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E16" t="s">
         <v>22</v>
       </c>
-      <c r="F7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" t="s">
-        <v>8</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="F16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I16" t="s">
+        <v>8</v>
+      </c>
+      <c r="K16" t="s">
         <v>20</v>
       </c>
+      <c r="M16" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="8" spans="2:17" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
+    <row r="17" spans="2:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E17" t="s">
         <v>22</v>
       </c>
-      <c r="F8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" t="s">
-        <v>8</v>
-      </c>
-      <c r="I8" t="s">
-        <v>8</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="F17" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" t="s">
+        <v>8</v>
+      </c>
+      <c r="I17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K17" t="s">
         <v>23</v>
       </c>
+      <c r="M17" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="9" spans="2:17" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
+    <row r="18" spans="2:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D18" t="s">
         <v>26</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" t="s">
+        <v>7</v>
+      </c>
+      <c r="K18" t="s">
+        <v>25</v>
+      </c>
+      <c r="M18" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q18" s="1"/>
+    </row>
+    <row r="19" spans="2:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" t="s">
+        <v>8</v>
+      </c>
+      <c r="I19" t="s">
+        <v>8</v>
+      </c>
+      <c r="K19" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q19" s="1"/>
+    </row>
+    <row r="20" spans="2:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" t="s">
+        <v>8</v>
+      </c>
+      <c r="I20" t="s">
+        <v>8</v>
+      </c>
+      <c r="K20" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q20" s="1"/>
+    </row>
+    <row r="21" spans="2:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" t="s">
         <v>29</v>
       </c>
-      <c r="F9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I9" t="s">
-        <v>7</v>
-      </c>
-      <c r="K9" t="s">
-        <v>25</v>
+      <c r="E21" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" t="s">
+        <v>8</v>
+      </c>
+      <c r="I21" t="s">
+        <v>8</v>
+      </c>
+      <c r="K21" t="s">
+        <v>28</v>
+      </c>
+      <c r="M21" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="10" spans="2:17" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" t="s">
-        <v>7</v>
-      </c>
-      <c r="H10" t="s">
-        <v>7</v>
-      </c>
-      <c r="I10" t="s">
-        <v>7</v>
-      </c>
-      <c r="K10" t="s">
-        <v>27</v>
+    <row r="22" spans="2:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" t="s">
+        <v>7</v>
+      </c>
+      <c r="H22" t="s">
+        <v>8</v>
+      </c>
+      <c r="I22" t="s">
+        <v>8</v>
+      </c>
+      <c r="K22" t="s">
+        <v>69</v>
+      </c>
+      <c r="M22" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="11" spans="2:17" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" t="s">
-        <v>7</v>
-      </c>
-      <c r="H11" t="s">
-        <v>8</v>
-      </c>
-      <c r="I11" t="s">
-        <v>8</v>
-      </c>
-      <c r="K11" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q11" s="1" t="s">
+    <row r="23" spans="2:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" t="s">
+        <v>62</v>
+      </c>
+      <c r="F23" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23" t="s">
+        <v>8</v>
+      </c>
+      <c r="I23" t="s">
+        <v>8</v>
+      </c>
+      <c r="K23" t="s">
+        <v>71</v>
+      </c>
+      <c r="M23" t="s">
         <v>40</v>
       </c>
+    </row>
+    <row r="24" spans="2:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" t="s">
+        <v>74</v>
+      </c>
+      <c r="E24" t="s">
+        <v>62</v>
+      </c>
+      <c r="F24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" t="s">
+        <v>7</v>
+      </c>
+      <c r="H24" t="s">
+        <v>8</v>
+      </c>
+      <c r="I24" t="s">
+        <v>8</v>
+      </c>
+      <c r="K24" t="s">
+        <v>73</v>
+      </c>
+      <c r="M24" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" t="s">
+        <v>76</v>
+      </c>
+      <c r="F25" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" t="s">
+        <v>7</v>
+      </c>
+      <c r="H25" t="s">
+        <v>8</v>
+      </c>
+      <c r="I25" t="s">
+        <v>8</v>
+      </c>
+      <c r="K25" t="s">
+        <v>75</v>
+      </c>
+      <c r="M25" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q25" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:K8" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="B2:S26" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="ND0002_NozzleTee (toniapedersen.github.io)" xr:uid="{A26CE6C0-2BFB-47C3-94E0-6267BE1C6C94}"/>
-    <hyperlink ref="B4" r:id="rId2" xr:uid="{17ADBAC8-7138-41E8-BDFB-2ED015B2E3B6}"/>
-    <hyperlink ref="B5" r:id="rId3" xr:uid="{7B0DB2E4-4491-4E74-8635-3DA0891DE92A}"/>
-    <hyperlink ref="B6" r:id="rId4" xr:uid="{3A518947-B6F8-4C42-81D7-7894D9144A33}"/>
-    <hyperlink ref="B9" r:id="rId5" xr:uid="{1530A2D6-E766-4B18-A43E-8B39F0F56795}"/>
-    <hyperlink ref="B10" r:id="rId6" xr:uid="{2DE5C6D6-0376-4B8F-BDAB-849D94654FDB}"/>
-    <hyperlink ref="B7" r:id="rId7" xr:uid="{761B47C6-804C-4528-8497-BBE932BB2C49}"/>
-    <hyperlink ref="B8" r:id="rId8" xr:uid="{EC8BC23F-0549-4B47-A475-38BE73BE9CEE}"/>
-    <hyperlink ref="B11" r:id="rId9" xr:uid="{5A391EDE-1D55-4CFD-9901-A29E0591193B}"/>
-    <hyperlink ref="Q11" r:id="rId10" xr:uid="{55AC7A21-B7E6-40E1-BAFE-05E296EBFA03}"/>
+    <hyperlink ref="B4" r:id="rId1" display="ND0002_NozzleTee (toniapedersen.github.io)" xr:uid="{A26CE6C0-2BFB-47C3-94E0-6267BE1C6C94}"/>
+    <hyperlink ref="B11" r:id="rId2" xr:uid="{17ADBAC8-7138-41E8-BDFB-2ED015B2E3B6}"/>
+    <hyperlink ref="B12" r:id="rId3" xr:uid="{3A518947-B6F8-4C42-81D7-7894D9144A33}"/>
+    <hyperlink ref="B18" r:id="rId4" xr:uid="{2DE5C6D6-0376-4B8F-BDAB-849D94654FDB}"/>
+    <hyperlink ref="B16" r:id="rId5" xr:uid="{761B47C6-804C-4528-8497-BBE932BB2C49}"/>
+    <hyperlink ref="B17" r:id="rId6" xr:uid="{EC8BC23F-0549-4B47-A475-38BE73BE9CEE}"/>
+    <hyperlink ref="B21" r:id="rId7" xr:uid="{5A391EDE-1D55-4CFD-9901-A29E0591193B}"/>
+    <hyperlink ref="B5" r:id="rId8" xr:uid="{975176F7-F497-4824-8376-23C959379C06}"/>
+    <hyperlink ref="B6" r:id="rId9" xr:uid="{5FA11009-5EE8-4528-A809-14E1B1FB1C10}"/>
+    <hyperlink ref="B7" r:id="rId10" xr:uid="{7720A7D8-16EA-4565-A935-C37587E784A7}"/>
+    <hyperlink ref="B8" r:id="rId11" xr:uid="{CF5F7511-92B4-421B-B7C3-594BAC34117C}"/>
+    <hyperlink ref="B9" r:id="rId12" xr:uid="{8BCC9369-A109-4DC7-B34A-9DE621C69D33}"/>
+    <hyperlink ref="B13" r:id="rId13" xr:uid="{BD7A7DCC-BFC7-48AF-B865-B8368E55F2E6}"/>
+    <hyperlink ref="B14" r:id="rId14" xr:uid="{4ECEB4FA-D039-495A-8F42-FFC9B443FDC3}"/>
+    <hyperlink ref="B15" r:id="rId15" xr:uid="{907022FE-3A1A-45BE-8FF2-AC230B1DD29B}"/>
+    <hyperlink ref="B19" r:id="rId16" xr:uid="{A8069CA7-B440-43C6-B571-35216079CADD}"/>
+    <hyperlink ref="B20" r:id="rId17" xr:uid="{7398F614-893C-4326-BA65-62E7CEF8B17B}"/>
+    <hyperlink ref="B10" r:id="rId18" xr:uid="{1ADB2152-63B7-4928-9D3B-DC3EB4E2B0DC}"/>
+    <hyperlink ref="B3" r:id="rId19" xr:uid="{E5089248-8A4A-441B-AAD4-38E52D108FB2}"/>
+    <hyperlink ref="Q21" r:id="rId20" xr:uid="{B3079AEB-3B19-4F5B-A9B9-A0FE0A7B0CAB}"/>
+    <hyperlink ref="B22" r:id="rId21" xr:uid="{86D99A6B-DD65-4D76-9524-599D4EAB2E02}"/>
+    <hyperlink ref="B23" r:id="rId22" display="PV014A" xr:uid="{3E8578A0-8239-405C-B417-86D7CEF2DB87}"/>
+    <hyperlink ref="B24" r:id="rId23" xr:uid="{27E00768-DA9C-4DAF-98AA-2381306E4A13}"/>
+    <hyperlink ref="Q24" r:id="rId24" xr:uid="{2C38B7F5-E724-4E3F-8D13-21D83115A545}"/>
+    <hyperlink ref="B25" r:id="rId25" xr:uid="{9F7EE259-EBE5-4578-86F7-E5EF694FDA65}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId11"/>
-  <legacyDrawing r:id="rId12"/>
+  <drawing r:id="rId26"/>
+  <legacyDrawing r:id="rId27"/>
 </worksheet>
 </file>